--- a/Output.xlsx
+++ b/Output.xlsx
@@ -424,12 +424,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>mindy</t>
+          <t>milla</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>ellison</t>
+          <t>bruce</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -458,12 +458,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>milla</t>
+          <t>lucinda</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bruce</t>
+          <t>childs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -475,12 +475,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>lucinda</t>
+          <t>mindy</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>childs</t>
+          <t>ellison</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -509,12 +509,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jamie</t>
+          <t>myra</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>lynch</t>
+          <t>davies</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -531,12 +531,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mahad</t>
+          <t>aneesa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>villa</t>
+          <t>cummings</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -553,12 +553,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>cosmo</t>
+          <t>nathanial</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>wallace</t>
+          <t>liu</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -575,12 +575,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>marnie</t>
+          <t>elen</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>carver</t>
+          <t>rush</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -597,12 +597,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isobella</t>
+          <t>shae</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>hackett</t>
+          <t>watt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -619,12 +619,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>monica</t>
+          <t>hailie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>beltran</t>
+          <t>connolly</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -641,12 +641,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ollie</t>
+          <t>husnain</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>buchanan</t>
+          <t>craig</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -663,12 +663,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>kacy</t>
+          <t>lilian</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>frazier</t>
+          <t>woodcock</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -685,12 +685,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>sylvie</t>
+          <t>yasemin</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>webster</t>
+          <t>mccann</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -707,12 +707,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>martine</t>
+          <t>mahad</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>flowers</t>
+          <t>villa</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -729,12 +729,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jimi</t>
+          <t>daniella</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>zavala</t>
+          <t>doherty</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -751,12 +751,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>anya</t>
+          <t>deanne</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>nieves</t>
+          <t>ramsay</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -773,12 +773,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>filip</t>
+          <t>maksim</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>lees</t>
+          <t>almond</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -795,12 +795,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>archer</t>
+          <t>zubair</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>gibson</t>
+          <t>lutz</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -817,12 +817,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>daniella</t>
+          <t>mayur</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>doherty</t>
+          <t>vargas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -839,12 +839,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>deanne</t>
+          <t>devin</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ramsay</t>
+          <t>weiss</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -861,12 +861,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>husnain</t>
+          <t>ferne</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>craig</t>
+          <t>mcclain</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -883,12 +883,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>miriam</t>
+          <t>ana</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>floyd</t>
+          <t>sanderson</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -905,12 +905,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>kelly</t>
+          <t>ayoub</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>young</t>
+          <t>nicholls</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -927,12 +927,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>xavier</t>
+          <t>eddison</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pollard</t>
+          <t>rojas</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -949,12 +949,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>mayur</t>
+          <t>cosmo</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>vargas</t>
+          <t>wallace</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -971,12 +971,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>becky</t>
+          <t>archer</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>morrison</t>
+          <t>gibson</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -993,12 +993,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>maksim</t>
+          <t>jamie</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>almond</t>
+          <t>lynch</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1015,12 +1015,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>zubair</t>
+          <t>filip</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>lutz</t>
+          <t>lees</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1037,12 +1037,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>bianca</t>
+          <t>casper</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>petty</t>
+          <t>mcbride</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1059,12 +1059,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>geraldine</t>
+          <t>spike</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bradley</t>
+          <t>avery</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1081,12 +1081,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>jerry</t>
+          <t>aaliyah</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>lane</t>
+          <t>robin</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1103,12 +1103,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>cali</t>
+          <t>greyson</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>reid</t>
+          <t>tate</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1125,12 +1125,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>pamela</t>
+          <t>ayah</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>delarosa</t>
+          <t>vinson</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1147,12 +1147,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>brenden</t>
+          <t>ifan</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ferry</t>
+          <t>walton</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1169,12 +1169,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ema</t>
+          <t>mariana</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ahmed</t>
+          <t>holcomb</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1191,12 +1191,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>grayson</t>
+          <t>finnley</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>hopkins</t>
+          <t>lee</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1213,12 +1213,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ayman</t>
+          <t>kodi</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>winters</t>
+          <t>case</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1235,12 +1235,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ismaeel</t>
+          <t>ayman</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>wells</t>
+          <t>winters</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1257,12 +1257,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>saskia</t>
+          <t>jimi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>blankenship</t>
+          <t>zavala</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1279,12 +1279,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>poppie</t>
+          <t>saskia</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>wang</t>
+          <t>blankenship</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1301,12 +1301,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>erica</t>
+          <t>marnie</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>gross</t>
+          <t>carver</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1323,12 +1323,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>dario</t>
+          <t>alaina</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>sinclair</t>
+          <t>smart</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1345,12 +1345,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ariel</t>
+          <t>geraldine</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>monroe</t>
+          <t>bradley</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1367,12 +1367,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>casper</t>
+          <t>grayson</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>mcbride</t>
+          <t>hopkins</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1389,12 +1389,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>connie</t>
+          <t>monica</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>preston</t>
+          <t>beltran</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1411,12 +1411,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>zac</t>
+          <t>darren</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>flower</t>
+          <t>corbett</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1433,12 +1433,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>eliza</t>
+          <t>brenden</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>burn</t>
+          <t>ferry</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1455,12 +1455,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ferne</t>
+          <t>cali</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mcclain</t>
+          <t>reid</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1477,12 +1477,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>madelaine</t>
+          <t>poppie</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>bass</t>
+          <t>wang</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1499,12 +1499,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>francis</t>
+          <t>renesmae</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>moss</t>
+          <t>chen</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1521,12 +1521,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>elora</t>
+          <t>charis</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>cole</t>
+          <t>bate</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1543,12 +1543,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>clara</t>
+          <t>yousuf</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>oakley</t>
+          <t>robbins</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1565,12 +1565,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>spike</t>
+          <t>kelly</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>avery</t>
+          <t>young</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1587,12 +1587,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>graham</t>
+          <t>zac</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>harper</t>
+          <t>flower</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1609,12 +1609,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>arnas</t>
+          <t>pamela</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>bray</t>
+          <t>delarosa</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1631,12 +1631,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>xanthe</t>
+          <t>neave</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>hodge</t>
+          <t>mclaughlin</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1653,12 +1653,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>nathanial</t>
+          <t>ismaeel</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>liu</t>
+          <t>wells</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1675,12 +1675,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ayah</t>
+          <t>eliza</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>vinson</t>
+          <t>burn</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1697,12 +1697,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>celeste</t>
+          <t>elora</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>mcintyre</t>
+          <t>cole</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1719,12 +1719,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>aneesa</t>
+          <t>martine</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>cummings</t>
+          <t>flowers</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1741,12 +1741,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>yasemin</t>
+          <t>clara</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>mccann</t>
+          <t>oakley</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1763,12 +1763,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>waqar</t>
+          <t>graham</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>mcfadden</t>
+          <t>harper</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1785,12 +1785,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>paolo</t>
+          <t>xavier</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>kumar</t>
+          <t>pollard</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1807,12 +1807,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>romilly</t>
+          <t>bianca</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>tapia</t>
+          <t>petty</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1829,12 +1829,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>teo</t>
+          <t>celeste</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>benson</t>
+          <t>mcintyre</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1851,12 +1851,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ifan</t>
+          <t>romilly</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>walton</t>
+          <t>tapia</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1873,12 +1873,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ayoub</t>
+          <t>jaye</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>nicholls</t>
+          <t>major</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1895,12 +1895,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>joann</t>
+          <t>becky</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>wills</t>
+          <t>morrison</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1917,12 +1917,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>alaina</t>
+          <t>ayda</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>smart</t>
+          <t>manning</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1939,12 +1939,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ayda</t>
+          <t>elizabeth</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>manning</t>
+          <t>allman</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1961,12 +1961,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>renesmae</t>
+          <t>jerry</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>chen</t>
+          <t>lane</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1983,12 +1983,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>cecily</t>
+          <t>sylvie</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>stanton</t>
+          <t>webster</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2005,12 +2005,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>devin</t>
+          <t>miriam</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>weiss</t>
+          <t>floyd</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2027,12 +2027,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>leela</t>
+          <t>isobella</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>collier</t>
+          <t>hackett</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2049,12 +2049,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>lilian</t>
+          <t>arnas</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>woodcock</t>
+          <t>bray</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2071,12 +2071,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>aaliyah</t>
+          <t>kylo</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>robin</t>
+          <t>brennan</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2093,12 +2093,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ana</t>
+          <t>cecily</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>sanderson</t>
+          <t>stanton</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2115,12 +2115,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>greyson</t>
+          <t>allan</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>tate</t>
+          <t>povey</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2137,12 +2137,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>elen</t>
+          <t>madelaine</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>rush</t>
+          <t>bass</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2159,12 +2159,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>kylo</t>
+          <t>august</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>brennan</t>
+          <t>wheeler</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2181,12 +2181,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>eddison</t>
+          <t>kacy</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>rojas</t>
+          <t>frazier</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2203,12 +2203,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>august</t>
+          <t>ariel</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>wheeler</t>
+          <t>monroe</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2225,12 +2225,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>hailie</t>
+          <t>dario</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>connolly</t>
+          <t>sinclair</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2247,12 +2247,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>allan</t>
+          <t>teo</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>povey</t>
+          <t>benson</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2269,12 +2269,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>yousuf</t>
+          <t>anya</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>robbins</t>
+          <t>nieves</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2291,12 +2291,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>kodi</t>
+          <t>connie</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>case</t>
+          <t>preston</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2313,12 +2313,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>elizabeth</t>
+          <t>erica</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>allman</t>
+          <t>gross</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2335,12 +2335,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>haya</t>
+          <t>waqar</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>couch</t>
+          <t>mcfadden</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2357,12 +2357,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>myra</t>
+          <t>paolo</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>davies</t>
+          <t>kumar</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2379,12 +2379,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>neave</t>
+          <t>xanthe</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>mclaughlin</t>
+          <t>hodge</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2401,12 +2401,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>shae</t>
+          <t>ollie</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>watt</t>
+          <t>buchanan</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2423,12 +2423,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>finnley</t>
+          <t>joann</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>lee</t>
+          <t>wills</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2445,12 +2445,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>jaye</t>
+          <t>ema</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>major</t>
+          <t>ahmed</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2467,12 +2467,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>darren</t>
+          <t>haya</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>corbett</t>
+          <t>couch</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2489,12 +2489,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>mariana</t>
+          <t>leela</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>holcomb</t>
+          <t>collier</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2511,12 +2511,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>charis</t>
+          <t>francis</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>bate</t>
+          <t>moss</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2533,12 +2533,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>gabriella</t>
+          <t>manahil</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>rodgers</t>
+          <t>bain</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2555,12 +2555,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>arnie</t>
+          <t>korban</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>beard</t>
+          <t>joyner</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2577,12 +2577,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ruby-rose</t>
+          <t>payton</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>plant</t>
+          <t>mccall</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2599,12 +2599,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>lacie</t>
+          <t>mairead</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>parrish</t>
+          <t>mercado</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2621,12 +2621,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>alan</t>
+          <t>angus</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>nash</t>
+          <t>mata</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2643,12 +2643,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>huw</t>
+          <t>isadora</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>roberson</t>
+          <t>simon</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2665,12 +2665,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>collette</t>
+          <t>musa</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>buckner</t>
+          <t>spence</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2687,12 +2687,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>katy</t>
+          <t>alba</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>irvine</t>
+          <t>brewer</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2709,12 +2709,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>kourtney</t>
+          <t>reece</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>bailey</t>
+          <t>liu</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2731,12 +2731,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>carrie</t>
+          <t>jagdeep</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>marshall</t>
+          <t>felix</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2753,12 +2753,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>milo</t>
+          <t>samantha</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>preston</t>
+          <t>reeves</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2775,12 +2775,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>azaan</t>
+          <t>enid</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>justice</t>
+          <t>walters</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2797,12 +2797,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>rickie</t>
+          <t>arandeep</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>john</t>
+          <t>casey</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2819,12 +2819,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>musa</t>
+          <t>pollyanna</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>spence</t>
+          <t>thompson</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2841,12 +2841,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>laurel</t>
+          <t>borys</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>stuart</t>
+          <t>mosley</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2863,12 +2863,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>roseanna</t>
+          <t>humphrey</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>luna</t>
+          <t>leon</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2885,12 +2885,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>marshall</t>
+          <t>lydia</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>acosta</t>
+          <t>hammond</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2907,12 +2907,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>shayla</t>
+          <t>laurel</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>blackmore</t>
+          <t>stuart</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2929,12 +2929,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>maximillian</t>
+          <t>connie</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>donnelly</t>
+          <t>whitney</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2951,12 +2951,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>benny</t>
+          <t>eamonn</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>winters</t>
+          <t>shepherd</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2973,12 +2973,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>marcelina</t>
+          <t>zeenat</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>banks</t>
+          <t>griffiths</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2995,12 +2995,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>marwah</t>
+          <t>martin</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>andrew</t>
+          <t>dunlap</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3017,12 +3017,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>marta</t>
+          <t>siena</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>betts</t>
+          <t>mcleod</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3039,12 +3039,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>enid</t>
+          <t>gurpreet</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>walters</t>
+          <t>cabrera</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3061,12 +3061,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>kiefer</t>
+          <t>violet</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>david</t>
+          <t>ritter</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3083,12 +3083,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>gurpreet</t>
+          <t>kylie</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>cabrera</t>
+          <t>moses</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3105,12 +3105,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>dainton</t>
+          <t>shayla</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>noble</t>
+          <t>blackmore</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3127,12 +3127,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>marianne</t>
+          <t>marwah</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>haley</t>
+          <t>andrew</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3149,12 +3149,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>chaya</t>
+          <t>balraj</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>mahoney</t>
+          <t>norton</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3171,12 +3171,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>violet</t>
+          <t>ilayda</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ritter</t>
+          <t>cooley</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3193,12 +3193,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>salahuddin</t>
+          <t>sean</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>newton</t>
+          <t>fisher</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3215,12 +3215,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>patsy</t>
+          <t>safiyyah</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>kumar</t>
+          <t>walmsley</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3237,12 +3237,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>willem</t>
+          <t>jameel</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>osborne</t>
+          <t>finch</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3259,12 +3259,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>isadora</t>
+          <t>ruby-rose</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>simon</t>
+          <t>plant</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3281,12 +3281,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>colette</t>
+          <t>misbah</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>prince</t>
+          <t>schultz</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3303,12 +3303,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>anita</t>
+          <t>hussain</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>benitez</t>
+          <t>lucero</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3325,12 +3325,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>pierce</t>
+          <t>ava</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>hess</t>
+          <t>ali</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3347,12 +3347,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>balraj</t>
+          <t>marcelina</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>norton</t>
+          <t>banks</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3369,12 +3369,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>aadam</t>
+          <t>nevaeh</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>bernard</t>
+          <t>mcdonnell</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3391,12 +3391,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>reya</t>
+          <t>roseanna</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>allison</t>
+          <t>luna</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3413,12 +3413,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>manahil</t>
+          <t>collette</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>bain</t>
+          <t>buckner</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3435,12 +3435,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>inaya</t>
+          <t>maximillian</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>blake</t>
+          <t>donnelly</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3457,12 +3457,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>meredith</t>
+          <t>alissa</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>shannon</t>
+          <t>peters</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3479,12 +3479,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ariadne</t>
+          <t>meredith</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>house</t>
+          <t>shannon</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3501,12 +3501,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>sadia</t>
+          <t>dainton</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>donovan</t>
+          <t>noble</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3523,12 +3523,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>bobbie</t>
+          <t>shakeel</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>churchill</t>
+          <t>phillips</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3545,12 +3545,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>jagdeep</t>
+          <t>rex</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>felix</t>
+          <t>lord</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3567,12 +3567,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>lacey</t>
+          <t>kiefer</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>stanton</t>
+          <t>david</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3589,12 +3589,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>catherine</t>
+          <t>salahuddin</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>hays</t>
+          <t>newton</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3611,12 +3611,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>rex</t>
+          <t>janet</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>lord</t>
+          <t>arias</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3633,12 +3633,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>angus</t>
+          <t>marshall</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>mata</t>
+          <t>acosta</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3655,12 +3655,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>lenny</t>
+          <t>lexi-mai</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>duarte</t>
+          <t>wilde</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -3677,12 +3677,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>humphrey</t>
+          <t>shani</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>leon</t>
+          <t>britton</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3699,12 +3699,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>safiyyah</t>
+          <t>chase</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>walmsley</t>
+          <t>barton</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3721,12 +3721,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>janet</t>
+          <t>kourtney</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>arias</t>
+          <t>bailey</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3743,12 +3743,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>mairead</t>
+          <t>rickie</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>mercado</t>
+          <t>john</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3765,12 +3765,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>misbah</t>
+          <t>patsy</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>schultz</t>
+          <t>kumar</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -3787,12 +3787,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>martin</t>
+          <t>gabriella</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>dunlap</t>
+          <t>rodgers</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3809,12 +3809,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>liberty</t>
+          <t>chaya</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>heath</t>
+          <t>mahoney</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3831,12 +3831,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>makenzie</t>
+          <t>mahamed</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>singleton</t>
+          <t>abbott</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3853,12 +3853,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>arandeep</t>
+          <t>alexa</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>casey</t>
+          <t>guerrero</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3875,12 +3875,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>lydia</t>
+          <t>milo</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>hammond</t>
+          <t>preston</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3897,12 +3897,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ava</t>
+          <t>benny</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ali</t>
+          <t>winters</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3919,12 +3919,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>mahamed</t>
+          <t>carrie</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>abbott</t>
+          <t>marshall</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3941,12 +3941,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>alba</t>
+          <t>alan</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>brewer</t>
+          <t>nash</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3963,12 +3963,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>aislinn</t>
+          <t>arnie</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>baird</t>
+          <t>beard</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3985,12 +3985,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>kylie</t>
+          <t>katy</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>moses</t>
+          <t>irvine</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4007,12 +4007,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>sean</t>
+          <t>aria</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>fisher</t>
+          <t>rosas</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4029,12 +4029,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>lexi-mai</t>
+          <t>lacey</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>wilde</t>
+          <t>stanton</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4051,12 +4051,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>hussain</t>
+          <t>asif</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>lucero</t>
+          <t>chung</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4073,12 +4073,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>borys</t>
+          <t>azaan</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>mosley</t>
+          <t>justice</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4095,12 +4095,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>korban</t>
+          <t>marianne</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>joyner</t>
+          <t>haley</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4117,12 +4117,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>shani</t>
+          <t>huw</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>britton</t>
+          <t>roberson</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4139,12 +4139,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>velma</t>
+          <t>pierce</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>bevan</t>
+          <t>hess</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4161,12 +4161,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>jameel</t>
+          <t>betsy</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>finch</t>
+          <t>hagan</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4183,12 +4183,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>alexa</t>
+          <t>sadia</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>guerrero</t>
+          <t>donovan</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4205,12 +4205,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>samantha</t>
+          <t>makenzie</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>reeves</t>
+          <t>singleton</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4227,12 +4227,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ilayda</t>
+          <t>marta</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>cooley</t>
+          <t>betts</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4249,12 +4249,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>payton</t>
+          <t>darin</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>mccall</t>
+          <t>webb</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -4271,12 +4271,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>connie</t>
+          <t>jillian</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>whitney</t>
+          <t>derrick</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -4293,12 +4293,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>shakeel</t>
+          <t>catherine</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>phillips</t>
+          <t>hays</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4315,12 +4315,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>aria</t>
+          <t>velma</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>rosas</t>
+          <t>bevan</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -4337,12 +4337,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>darin</t>
+          <t>aislinn</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>webb</t>
+          <t>baird</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -4359,12 +4359,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>eamonn</t>
+          <t>inaya</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>shepherd</t>
+          <t>blake</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4381,12 +4381,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>kitty</t>
+          <t>willem</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>mcdougall</t>
+          <t>osborne</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4403,12 +4403,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>reece</t>
+          <t>bobbie</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>liu</t>
+          <t>churchill</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4425,12 +4425,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>asif</t>
+          <t>kitty</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>chung</t>
+          <t>mcdougall</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -4447,12 +4447,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>jillian</t>
+          <t>aadam</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>derrick</t>
+          <t>bernard</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4469,12 +4469,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>pollyanna</t>
+          <t>lenny</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>thompson</t>
+          <t>duarte</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4491,12 +4491,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>zeenat</t>
+          <t>ariadne</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>griffiths</t>
+          <t>house</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4513,12 +4513,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>betsy</t>
+          <t>lacie</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>hagan</t>
+          <t>parrish</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4535,12 +4535,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>siena</t>
+          <t>colette</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>mcleod</t>
+          <t>prince</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4557,12 +4557,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>alissa</t>
+          <t>anita</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>peters</t>
+          <t>benitez</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4579,12 +4579,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>nevaeh</t>
+          <t>liberty</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>mcdonnell</t>
+          <t>heath</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -4601,12 +4601,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>chase</t>
+          <t>reya</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>barton</t>
+          <t>allison</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
